--- a/Mifos Automation Excels/Loan Product/2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Loanproduct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t>productname</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH</t>
+  </si>
+  <si>
+    <t>2363-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -385,7 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -793,66 +795,66 @@
       </c>
     </row>
     <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
     </row>
@@ -953,18 +955,18 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>42005</v>
       </c>
     </row>
@@ -1144,31 +1146,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1176,7 +1178,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1184,7 +1186,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1192,29 +1194,29 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>42096</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1222,23 +1224,23 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>42125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1246,7 +1248,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1254,23 +1256,23 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>42156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1278,7 +1280,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1286,23 +1288,23 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>42186</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1310,7 +1312,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
